--- a/medicine/Pharmacie/Pharmacien_hospitalier/Pharmacien_hospitalier.xlsx
+++ b/medicine/Pharmacie/Pharmacien_hospitalier/Pharmacien_hospitalier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pharmacien hospitalier exerce à l'hôpital des activités de dispensation, de reconstitution de médicaments mais aussi d'informations des médecins et des patients. Il fait partie intégrante de l'équipe multidisciplinaire avec les autres intervenants du réseau de la santé au sein de l'hôpital.
 Les pharmaciens sont des acteurs clés de la santé publique impliqués dans toute la chaîne du médicament et des produits de santé, de la fabrication à la dispensation, ou exerçant la biologie, ils sont au coeur de la prise en charge des patients.
@@ -490,7 +502,7 @@
 Quelle que soit son activité, celle-ci doit faire au minimum six années d’études pour les filières officine et industrie, tandis que pour la pharmacie hospitalière et la biologie médicale il faut compter 9 ans (dont 4 années d'internat). A l’issue de celles-ci, l’étudiant doit soutenir une thèse afin d’obtenir son diplôme. Les études se terminent par l’obtention du diplôme d’État de Docteur en Pharmacie et le jeune diplômé doit prononcer le Serment de Galien. Et pour finir, le pharmacien doit obligatoirement s’inscrire à l’ordre des pharmaciens en vertu de l’article L 4221-1 du Code de la Santé Publique (CSP).
 Ses compétences au sein de l’hôpital sont de gérer les achats, l’approvisionnement, réaliser des préparations hospitalières et officinales, assurer la traçabilité de certains médicaments, contrôler les préparations, gérer la stérilisation, participer à la commission du médicament, aux recherches biomédicales ainsi que de dispenser aux patients hospitalisées ou ambulatoires, ces produits de santé (analyse des prescriptions et préparation éventuelle des doses à administrer).
 Il est amené à entretenir des relations professionnelles avec des professionnels de santé hospitaliers (médecins, personnels infirmiers...) mais aussi les autorités administratives comme l’Agence Régionale de Santé, la Haute Autorité de santé.
-Le pharmacien hospitalier fait partie des docteurs praticiens hospitaliers (PH), au même titre que les médecins, les biologistes, les chirurgiens, ou encore les odontologistes. Ils partagent d'ailleurs la même grille de rémunération[1].
+Le pharmacien hospitalier fait partie des docteurs praticiens hospitaliers (PH), au même titre que les médecins, les biologistes, les chirurgiens, ou encore les odontologistes. Ils partagent d'ailleurs la même grille de rémunération.
 </t>
         </is>
       </c>
@@ -519,7 +531,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a fallu attendre cinq siècles pour reconnaitre le rôle indispensable de la pharmacie à l’hôpital dite « pharmacie à usage intérieur » (PUI) et du pharmacien hospitalier. Par conséquent, ces derniers restent indissociables l’un de l’autre.
 Le premier document publié relatif à la pharmacie est la loi relative à l’École de Salerne, promulguée en 1224. Bien plus tard, une déclaration du 25 avril 1787 est repris par la loi du 21 Germinal de l’an XI qui disposait que « nul ne peut ouvrir une officine de pharmacie, préparer, vendre et débiter aucun médicament, s’il n’a été reçu pharmacien ». Les officines doivent donc, sauf exception en faveur des hôpitaux, être la propriété du pharmacien qui les exploite.
@@ -554,7 +568,9 @@
           <t>Le circuit du médicament</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le circuit du médicament peut se diviser en 2 circuits distincts et pourtant interconnectés.
 Il s’agit tout d’abord du circuit clinique c’est-à-dire la prise en charge médicamenteuse du patient de son entrée à l’hôpital jusqu’à sa sortie. Cela passe par différentes phases notamment :
@@ -606,7 +622,9 @@
           <t>Le coût de l'erreur médicamenteuse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la Cour des comptes, en 2015 la consommation de médicament en ville a représenté 33,8 Mds€ dont 4,3 Mds€ intégralement pris en charge par l’hôpital. Sur les 29, 8 Mds€ de dépenses de médicaments en ville remboursables, 27 Mds€correspondaient à des médicaments distribués par les officines et 2,8 Mds€ à des médicaments délivrés par les pharmacies à usage intérieur en rétrocession hospitalière.
 Pour se protéger les établissements de santé doivent souscrire à des contrats de responsabilité civile hospitalière contre les risques liés à leurs activités médicales. Néanmoins les assurances depuis l’avènement de cette forme de responsabilité ont considérablement augmenté leur tarification du risque de responsabilité médicale en général et hospitalière en particulier.
@@ -643,7 +661,9 @@
           <t>Dispensation du médicament</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La dispensation des médicaments trouve sa place dans le Code de la santé publique. En effet, elle correspond à l’acte pharmaceutique qui accompagne la délivrance des médicaments. Le pharmacien est le seul professionnel pouvant réaliser l’acte de dispensation du médicament. Seuls les préparateurs en pharmacie sont autorisés à participer à la préparation et délivrance des médicaments9, mais on parle ici d’une simple assistance. La responsabilité réside sur le pharmacien, « La préparation, l'importation, l'exportation, la distribution en gros et l'activité de courtage de médicaments ainsi que la pharmacovigilance, doivent être réalisées en conformité avec de bonnes pratiques dont les principes sont définis par décision de l'Agence nationale de sécurité du médicament et des produits de santé. »
 La dispensation regroupe les activités pharmaceutiques induites par la prescription médicale depuis l’analyse de l’ordonnance jusqu’à l’acheminement du médicament au patient. L’ANAP11 a réalisé une étude auprès de 15 établissements de santé ayant la dispensation nominative avec des organisations variées :
@@ -678,7 +698,9 @@
           <t>Stérilisation et contrôle des préparations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les préparations sont des médicaments et il en existe 3 types : les préparations hospitalières, magistrales et officinales. Il est question ici de s’intéresser aux préparations hospitalières et magistrales puisque certaines de celles-ci vont être préparées au sein de la pharmacie à usage intérieur des établissements de santé.
 Les préparations magistrales sont réalisées pour un patient déterminé et selon une prescription médicale, en raison de l’absence de spécialité disponible ou adaptée. Elles peuvent être préparées soit par une pharmacie d’officine soit par une PUI d’un établissement de santé.
@@ -720,7 +742,9 @@
           <t>La promotion/éducation de la santé et nouveau rôle du PH</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la définition de l'Organisation Mondiale de la Santé (OMS) de 1948, la prévention se définit comme l'ensemble des mesures prises pour éviter la survenue d'un accident ou d'une maladie. Elle vise à empêcher la survenue ou l'aggravation de la maladie en réduisant ou supprimant les facteurs de risque, en organisant le dépistage, en évitant ou retardant les complications, ou en favorisant la réinsertion des personnes atteintes.
 Il y a trois stades d'intervention sanitaire préventive :
